--- a/backend/uploads/ExtractedFiles/1256.xlsx
+++ b/backend/uploads/ExtractedFiles/1256.xlsx
@@ -4,12 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="14625"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27800" windowHeight="14630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -404,9 +402,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,7 +427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -452,7 +450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -475,7 +473,7 @@
         <v>8.4799995422363281</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -498,7 +496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -521,7 +519,7 @@
         <v>10.130000114440918</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -544,7 +542,7 @@
         <v>8.4300003051757812</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -567,7 +565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -590,7 +588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -613,7 +611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -636,7 +634,7 @@
         <v>8.2799997329711914</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -659,7 +657,7 @@
         <v>8.5299997329711914</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -682,7 +680,7 @@
         <v>8.0500001907348633</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -705,7 +703,7 @@
         <v>7.0500001907348633</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -728,7 +726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -751,7 +749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -774,7 +772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -797,7 +795,7 @@
         <v>6.119999885559082</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -820,7 +818,7 @@
         <v>6.2199997901916504</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -843,7 +841,7 @@
         <v>9.5100002288818359</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -866,7 +864,7 @@
         <v>7.5100002288818359</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -889,7 +887,7 @@
         <v>6.119999885559082</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -912,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -935,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -958,7 +956,7 @@
         <v>8.3100004196166992</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -981,7 +979,7 @@
         <v>7.3499999046325684</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1004,7 +1002,7 @@
         <v>7.570000171661377</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1027,7 +1025,7 @@
         <v>9.3900003433227539</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1050,7 +1048,7 @@
         <v>8.4399995803833008</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1073,7 +1071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1096,7 +1094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1119,7 +1117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1142,7 +1140,7 @@
         <v>7.5399999618530273</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1165,7 +1163,7 @@
         <v>7.1399998664855957</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1188,7 +1186,7 @@
         <v>7.5500001907348633</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1211,7 +1209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1234,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1257,7 +1255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1280,7 +1278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1303,7 +1301,7 @@
         <v>8.1599998474121094</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -1326,7 +1324,7 @@
         <v>4.5799999237060547</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1349,7 +1347,7 @@
         <v>5.0900001525878906</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -1372,7 +1370,7 @@
         <v>7.4899997711181641</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -1395,7 +1393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1418,7 +1416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -1441,7 +1439,7 @@
         <v>8.130000114440918</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1464,7 +1462,7 @@
         <v>8.1700000762939453</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1487,7 +1485,7 @@
         <v>10.090000152587891</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1510,7 +1508,7 @@
         <v>9.2700004577636719</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1533,7 +1531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1556,7 +1554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1579,7 +1577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1602,7 +1600,7 @@
         <v>8.4799995422363281</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -1625,7 +1623,7 @@
         <v>8.2799997329711914</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -1648,7 +1646,7 @@
         <v>9.3500003814697266</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -1671,7 +1669,7 @@
         <v>8.0600004196166992</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -1694,7 +1692,7 @@
         <v>9.1599998474121094</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -1717,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -1740,7 +1738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -1763,7 +1761,7 @@
         <v>8.4899997711181641</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -1786,7 +1784,7 @@
         <v>9.5699996948242187</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -1812,28 +1810,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>